--- a/复盘.xlsx
+++ b/复盘.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02590830-1168-45C8-B631-D88FF02356FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5DDFAD2E-194B-4316-9EF2-156355166C7B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="伊利" sheetId="1" r:id="rId1"/>
+    <sheet name="新北洋" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>均线</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +239,78 @@
   </si>
   <si>
     <t>扣抵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上，价在5MA之上。扣抵低股价区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下，有走平的趋势；扣抵在高股价区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下；股价在其下；扣抵低股价区；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上；股价在其上；扣抵低股价区；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下，股价最高来的布林中轨，表现出遇压力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量增，大于5日均量；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量缩至5日均量之下，5MA下弯就减仓；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下；股价在其下，扣抵高股价区；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上；股价在其下，扣抵低股价区；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上，股价在其上；扣抵低股价区；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走平；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过周期均线呈多头排列；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日KD死叉向下；周KD在高档（80附近）有点向下的趋势（本周股价在回调）；金叉向上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三轨向上，股价下跌到中轨表现出遇支撑；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日放量，股价下跌，但留出下影线，可研判为股价在下跌过程中有低接的筹码进场；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多周期均线目前还是呈现多头排列；股价来的布林中轨遇到支撑，但跌破月线；股价在尾盘明显有进场的筹码；目前股价在下跌过程中将日线转弱价定为16.00+-0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日量增价涨，但股价来的布林中轨表现出遇压力，31MA也是如此；周线KD呈现出金叉向上的走势；从量来看，较前一个布林中轨遇压回调时的量有所增加，表示出有利于冲布林中轨的压力。从5MA扣抵低股价区、31MA扣抵高股价区，63MA扣抵低股价区来看，布林中轨（31MA）的压力较大；后市操作还是看量有没有持续放大来冲压力，股价是否能有效突破28.00；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察接下来两个交易日布林中轨是否为有效支撑，或跌破时股价能否快速回到布林中轨之上；股价若跌破前低，则线性有可能被破坏；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -566,31 +639,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -624,6 +727,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -636,6 +763,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,37 +779,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,539 +1084,560 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53" style="2" customWidth="1"/>
-    <col min="11" max="11" width="46.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="33" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="20"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="20"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>43228</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>43229</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>43231</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>43234</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="5"/>
+      <c r="A9" s="6">
+        <v>43235</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>43236</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="5" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="5"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1507,4 +1655,164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42C855B-F72A-4334-BA27-2AD458946D8E}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="10" max="10" width="50" customWidth="1"/>
+    <col min="11" max="11" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="37">
+        <v>43236</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/复盘.xlsx
+++ b/复盘.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5DDFAD2E-194B-4316-9EF2-156355166C7B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5B73E80-40AD-4A73-AA97-19F401364119}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="伊利" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>均线</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,49 @@
   </si>
   <si>
     <t>观察接下来两个交易日布林中轨是否为有效支撑，或跌破时股价能否快速回到布林中轨之上；股价若跌破前低，则线性有可能被破坏；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下，股价在5MA之下。扣抵高股价区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下，有走平趋势；股价扣抵高指数区；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下；股价扣抵高指数区；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上；股价在其下；扣抵低指数区；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多周期来看，还在空头趋势中。呈均线纠结；股价在多周期均线下方；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档死叉；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前几个交易日的股价来的布林中轨后遇压力涨不动，量缩；目前股价在布林中轨和下轨之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日股价有上涨；但量缩不足5日均量；K棒有上影线，说明买盘力道不不足；前段时间积累了一定的获利盘，再加上前两个交易日的量大收黑，说明获利盘和套牢盘卖出；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前趋势还是向下，布林中轨和前期跳空缺口的压力较重；多周期均线向下且均线纠结；所以股价大概率会测试布林下轨甚至前期低点；要破解需要有买盘出现（持续的买盘），这是有难度的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力：27.70（31MA和跳空缺口，布林中轨）。
+日线支撑：25.70附近
+强支撑：24.92附近（布林下轨）
+目前30分KD呈金叉趋势，有利于次日开盘股价上升，但股价可能在5日均线（26.28）处遇到压力,判断能否突破压力看量。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,30 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -674,6 +693,32 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -742,15 +787,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,29 +814,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1095,57 +1140,52 @@
     <col min="4" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53" style="1" customWidth="1"/>
-    <col min="11" max="11" width="46.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53" style="1" customWidth="1"/>
+    <col min="10" max="10" width="46.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="27"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -1159,14 +1199,13 @@
       <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43228</v>
       </c>
@@ -1188,18 +1227,17 @@
       <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>43229</v>
       </c>
@@ -1221,18 +1259,17 @@
       <c r="G5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>28</v>
@@ -1252,18 +1289,17 @@
       <c r="G6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>43231</v>
       </c>
@@ -1285,18 +1321,17 @@
       <c r="G7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>43234</v>
       </c>
@@ -1318,18 +1353,17 @@
       <c r="G8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>43235</v>
       </c>
@@ -1340,11 +1374,10 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="I9" s="8"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>43236</v>
       </c>
@@ -1366,46 +1399,65 @@
       <c r="G10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="39">
+        <v>43245</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="3" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="8"/>
       <c r="C13" s="12"/>
@@ -1414,11 +1466,10 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="8"/>
       <c r="C14" s="12"/>
@@ -1427,11 +1478,10 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
       <c r="C15" s="12"/>
@@ -1440,11 +1490,10 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I15" s="8"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="8"/>
       <c r="C16" s="12"/>
@@ -1453,11 +1502,10 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I16" s="8"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="8"/>
       <c r="C17" s="12"/>
@@ -1466,11 +1514,10 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I17" s="8"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="12"/>
@@ -1479,11 +1526,10 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I18" s="8"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="12"/>
@@ -1492,11 +1538,10 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="12"/>
@@ -1505,11 +1550,10 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I20" s="8"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="12"/>
@@ -1518,11 +1562,10 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
@@ -1531,11 +1574,10 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I22" s="8"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="12"/>
@@ -1544,11 +1586,10 @@
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I23" s="8"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="12"/>
@@ -1557,11 +1598,10 @@
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I24" s="8"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
@@ -1570,11 +1610,10 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I25" s="8"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="12"/>
@@ -1583,11 +1622,10 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I26" s="8"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12"/>
@@ -1596,11 +1634,10 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I27" s="8"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
@@ -1609,11 +1646,10 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I28" s="8"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
@@ -1622,11 +1658,10 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="9"/>
       <c r="C30" s="13"/>
@@ -1635,20 +1670,20 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="5"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A1:A3"/>
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="K1:K3"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="H1:H3"/>
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1661,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42C855B-F72A-4334-BA27-2AD458946D8E}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -1680,51 +1715,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1737,15 +1772,15 @@
       <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="37">
+      <c r="A4" s="35">
         <v>43236</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1760,40 +1795,49 @@
       <c r="E4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="B5:E5"/>
@@ -1802,15 +1846,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/复盘.xlsx
+++ b/复盘.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5B73E80-40AD-4A73-AA97-19F401364119}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3AAC767A-3799-48E7-9D5D-B08FF95C9199}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="伊利" sheetId="1" r:id="rId1"/>
     <sheet name="新北洋" sheetId="2" r:id="rId2"/>
+    <sheet name="海螺水泥" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>均线</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,12 +357,24 @@
 目前30分KD呈金叉趋势，有利于次日开盘股价上升，但股价可能在5日均线（26.28）处遇到压力,判断能否突破压力看量。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>6月8日（五）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前股价还是呈现多头排列，月线、季线扣抵低股价区。股价在接近压力区布林上轨（36.35左右）出现回调，MA5还未出现下弯，价近2个交易日出现下跌量缩。股价下跌过程中，价跌量缩是比较正常的量价关系。KD方面，目前J值出现下弯，KD都在50以上，但有缩口现象，周KD、月KD都呈现上升趋势。整体的表现为涨多后的正常修正。操作上：等待30分KD向上时买入1手，30分KD向下是卖出1手以降低持股成本，完成操作后如股价走高则继续持有，下跌则在支撑区买入（布林中轨、下轨）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +392,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
@@ -725,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -772,6 +794,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,6 +851,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -823,29 +863,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1146,47 +1178,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="26" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="22"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1199,11 +1231,11 @@
       <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="22"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -1410,7 +1442,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="39">
+      <c r="A11" s="19">
         <v>43245</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1434,13 +1466,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="12" t="s">
         <v>76</v>
       </c>
@@ -1696,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42C855B-F72A-4334-BA27-2AD458946D8E}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1715,51 +1747,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1772,15 +1804,15 @@
       <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+      <c r="A4" s="39">
         <v>43236</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1795,40 +1827,48 @@
       <c r="E4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="36" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F3"/>
@@ -1838,16 +1878,45 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C2AE8C-21B9-41B0-AA93-115EB4AC7285}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.75" style="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>